--- a/src/export_community_amenities.xlsx
+++ b/src/export_community_amenities.xlsx
@@ -15,63 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
   <si>
     <t>'24 Hour Availability'</t>
   </si>
   <si>
-    <t>'Air Conditioning'</t>
-  </si>
-  <si>
-    <t>'Balcony'</t>
-  </si>
-  <si>
-    <t>'Basement'</t>
+    <t>'Adjacent to Open Space'</t>
+  </si>
+  <si>
+    <t>'Adjacent to Walking / Biking Trails'</t>
   </si>
   <si>
     <t>'Basketball Court'</t>
   </si>
   <si>
-    <t>'Bay Window'</t>
-  </si>
-  <si>
-    <t>'Bike Storage'</t>
-  </si>
-  <si>
-    <t>'Breakfast Nook'</t>
+    <t>'Boat Docks'</t>
   </si>
   <si>
     <t>'Breakfast/Coffee Concierge'</t>
   </si>
   <si>
-    <t>'Built-In Bookshelves'</t>
-  </si>
-  <si>
     <t>'Business Center'</t>
   </si>
   <si>
     <t>'Cabana'</t>
   </si>
   <si>
-    <t>'Cable Ready'</t>
-  </si>
-  <si>
-    <t>'Car Charging Station'</t>
-  </si>
-  <si>
     <t>'Car Wash Area'</t>
   </si>
   <si>
-    <t>'Carpet'</t>
-  </si>
-  <si>
-    <t>'Ceiling Fans'</t>
-  </si>
-  <si>
     <t>'Clubhouse'</t>
   </si>
   <si>
-    <t>'Coffee System'</t>
+    <t>'Clubhouse / Recreation Room'</t>
+  </si>
+  <si>
+    <t>'Community Pool'</t>
   </si>
   <si>
     <t>'Community-Wide WiFi'</t>
@@ -92,109 +71,43 @@
     <t>'Corporate Suites'</t>
   </si>
   <si>
-    <t>'Courtyard'</t>
-  </si>
-  <si>
-    <t>'Crown Molding'</t>
+    <t>'Cul de Sac'</t>
   </si>
   <si>
     <t>'Day Care'</t>
   </si>
   <si>
-    <t>'Deck'</t>
-  </si>
-  <si>
-    <t>'Den'</t>
-  </si>
-  <si>
-    <t>'Dining Room'</t>
-  </si>
-  <si>
-    <t>'Dishwasher'</t>
-  </si>
-  <si>
-    <t>'Disposal'</t>
-  </si>
-  <si>
     <t>'Disposal Chutes'</t>
   </si>
   <si>
     <t>'Doorman'</t>
   </si>
   <si>
-    <t>'Double Vanities'</t>
-  </si>
-  <si>
     <t>'Dry Cleaning Service'</t>
   </si>
   <si>
-    <t>'Eat-in Kitchen'</t>
-  </si>
-  <si>
-    <t>'Elevator'</t>
-  </si>
-  <si>
-    <t>'Family Room'</t>
-  </si>
-  <si>
     <t>'Fenced Lot'</t>
   </si>
   <si>
-    <t>'Fireplace'</t>
-  </si>
-  <si>
-    <t>'Fitness Center'</t>
-  </si>
-  <si>
-    <t>'Framed Mirrors'</t>
-  </si>
-  <si>
-    <t>'Freezer'</t>
-  </si>
-  <si>
-    <t>'Furnished'</t>
-  </si>
-  <si>
-    <t>'Furnished Units Available'</t>
+    <t>'Full Scenic View'</t>
   </si>
   <si>
     <t>'Gameroom'</t>
   </si>
   <si>
-    <t>'Garden'</t>
-  </si>
-  <si>
-    <t>'Gated'</t>
-  </si>
-  <si>
-    <t>'Granite Countertops'</t>
-  </si>
-  <si>
-    <t>'Grill'</t>
+    <t>'Gated Community'</t>
+  </si>
+  <si>
+    <t>'Golf Course'</t>
   </si>
   <si>
     <t>'Guest Apartment'</t>
   </si>
   <si>
-    <t>'Handrails'</t>
-  </si>
-  <si>
-    <t>'Hardwood Floors'</t>
-  </si>
-  <si>
     <t>'Health Club Discount'</t>
   </si>
   <si>
-    <t>'Heating'</t>
-  </si>
-  <si>
-    <t>'High Speed Internet Access'</t>
-  </si>
-  <si>
-    <t>'Ice Maker'</t>
-  </si>
-  <si>
-    <t>'In Unit Washer &amp; Dryer'</t>
+    <t>'Hearing Impaired Accessible'</t>
   </si>
   <si>
     <t>'Individual Leases Available'</t>
@@ -203,45 +116,15 @@
     <t>'Individual Locking Bedrooms'</t>
   </si>
   <si>
-    <t>'Instant Hot Water'</t>
-  </si>
-  <si>
-    <t>'Island Kitchen'</t>
-  </si>
-  <si>
     <t>'Key Fob Entry'</t>
   </si>
   <si>
-    <t>'Kitchen'</t>
-  </si>
-  <si>
     <t>'Lake Access'</t>
   </si>
   <si>
-    <t>'Large Bedrooms'</t>
-  </si>
-  <si>
-    <t>'Laundry Facilities'</t>
-  </si>
-  <si>
     <t>'Laundry Service'</t>
   </si>
   <si>
-    <t>'Lawn'</t>
-  </si>
-  <si>
-    <t>'Linen Closet'</t>
-  </si>
-  <si>
-    <t>'Loft Layout'</t>
-  </si>
-  <si>
-    <t>'Lounge'</t>
-  </si>
-  <si>
-    <t>'Maid Service'</t>
-  </si>
-  <si>
     <t>'Maintenance on site'</t>
   </si>
   <si>
@@ -251,13 +134,16 @@
     <t>'Media Center/Movie Theatre'</t>
   </si>
   <si>
-    <t>'Microwave'</t>
-  </si>
-  <si>
     <t>'Multi Use Room'</t>
   </si>
   <si>
-    <t>'Office'</t>
+    <t>'Near Parks'</t>
+  </si>
+  <si>
+    <t>'Near Retail'</t>
+  </si>
+  <si>
+    <t>'On-Site ATM'</t>
   </si>
   <si>
     <t>'On-Site Retail'</t>
@@ -266,16 +152,10 @@
     <t>'Online Services'</t>
   </si>
   <si>
-    <t>'Oven'</t>
-  </si>
-  <si>
     <t>'Package Service'</t>
   </si>
   <si>
-    <t>'Pantry'</t>
-  </si>
-  <si>
-    <t>'Patio'</t>
+    <t>'Partial Scenic View'</t>
   </si>
   <si>
     <t>'Pet Care'</t>
@@ -296,12 +176,6 @@
     <t>'Playground'</t>
   </si>
   <si>
-    <t>'Pond'</t>
-  </si>
-  <si>
-    <t>'Pool'</t>
-  </si>
-  <si>
     <t>'Private Bathroom'</t>
   </si>
   <si>
@@ -317,18 +191,9 @@
     <t>'Racquetball Court'</t>
   </si>
   <si>
-    <t>'Range'</t>
-  </si>
-  <si>
-    <t>'Recreation Room'</t>
-  </si>
-  <si>
     <t>'Recycling'</t>
   </si>
   <si>
-    <t>'Refrigerator'</t>
-  </si>
-  <si>
     <t>'Renters Insurance Program'</t>
   </si>
   <si>
@@ -338,79 +203,37 @@
     <t>'Roommate Matching'</t>
   </si>
   <si>
-    <t>'Satellite TV'</t>
-  </si>
-  <si>
-    <t>'Sauna'</t>
-  </si>
-  <si>
-    <t>'Security System'</t>
-  </si>
-  <si>
     <t>'Shuttle To Campus'</t>
   </si>
   <si>
-    <t>'Smoke Free'</t>
-  </si>
-  <si>
     <t>'Spa'</t>
   </si>
   <si>
-    <t>'Sprinkler System'</t>
-  </si>
-  <si>
-    <t>'Stainless Steel Appliances'</t>
-  </si>
-  <si>
     <t>'Storage Space'</t>
   </si>
   <si>
-    <t>'Storage Units'</t>
-  </si>
-  <si>
     <t>'Study Lounge'</t>
   </si>
   <si>
     <t>'Sundeck'</t>
   </si>
   <si>
-    <t>'Sunroom'</t>
-  </si>
-  <si>
-    <t>'Surround Sound'</t>
-  </si>
-  <si>
     <t>'Tanning Salon'</t>
   </si>
   <si>
-    <t>'Tennis Court'</t>
-  </si>
-  <si>
-    <t>'Tile Floors'</t>
-  </si>
-  <si>
-    <t>'Trash Compactor'</t>
-  </si>
-  <si>
     <t>'Trash Pickup - Curbside'</t>
   </si>
   <si>
     <t>'Trash Pickup - Door to Door'</t>
   </si>
   <si>
-    <t>'Tub/Shower'</t>
-  </si>
-  <si>
-    <t>'Vaulted Ceiling'</t>
-  </si>
-  <si>
     <t>'Video Patrol'</t>
   </si>
   <si>
-    <t>'Views'</t>
-  </si>
-  <si>
-    <t>'Vinyl Flooring'</t>
+    <t>'Vintage Building'</t>
+  </si>
+  <si>
+    <t>'Vision Impaired Accessible'</t>
   </si>
   <si>
     <t>'Volleyball Court'</t>
@@ -419,34 +242,16 @@
     <t>'Walk To Campus'</t>
   </si>
   <si>
-    <t>'Walk-In Closets'</t>
-  </si>
-  <si>
     <t>'Walking/Biking Trails'</t>
   </si>
   <si>
-    <t>'Washer/Dryer Hookup'</t>
-  </si>
-  <si>
     <t>'Waterfront'</t>
   </si>
   <si>
-    <t>'Wet Bar'</t>
-  </si>
-  <si>
-    <t>'Wheelchair Accessible (Rooms)'</t>
-  </si>
-  <si>
-    <t>'Wi-Fi'</t>
+    <t>'Waterfront View'</t>
   </si>
   <si>
     <t>'Wi-Fi at Pool and Clubhouse'</t>
-  </si>
-  <si>
-    <t>'Window Coverings'</t>
-  </si>
-  <si>
-    <t>'Yard'</t>
   </si>
   <si>
     <t>'Zen Garden'</t>
@@ -785,7 +590,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A145"/>
+  <dimension ref="A1:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,331 +996,6 @@
     <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/src/export_community_amenities.xlsx
+++ b/src/export_community_amenities.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
   <si>
     <t>'24 Hour Availability'</t>
   </si>
@@ -29,6 +29,9 @@
     <t>'Basketball Court'</t>
   </si>
   <si>
+    <t>'Bike Storage'</t>
+  </si>
+  <si>
     <t>'Boat Docks'</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>'Cabana'</t>
   </si>
   <si>
+    <t>'Car Charging Station'</t>
+  </si>
+  <si>
     <t>'Car Wash Area'</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
     <t>'Corporate Suites'</t>
   </si>
   <si>
+    <t>'Courtyard'</t>
+  </si>
+  <si>
     <t>'Cul de Sac'</t>
   </si>
   <si>
@@ -86,9 +95,15 @@
     <t>'Dry Cleaning Service'</t>
   </si>
   <si>
+    <t>'Elevator'</t>
+  </si>
+  <si>
     <t>'Fenced Lot'</t>
   </si>
   <si>
+    <t>'Fitness Center'</t>
+  </si>
+  <si>
     <t>'Full Scenic View'</t>
   </si>
   <si>
@@ -98,7 +113,7 @@
     <t>'Gated Community'</t>
   </si>
   <si>
-    <t>'Golf Course'</t>
+    <t>'Grocery Service'</t>
   </si>
   <si>
     <t>'Guest Apartment'</t>
@@ -125,6 +140,12 @@
     <t>'Laundry Service'</t>
   </si>
   <si>
+    <t>'Lounge'</t>
+  </si>
+  <si>
+    <t>'Maid Service'</t>
+  </si>
+  <si>
     <t>'Maintenance on site'</t>
   </si>
   <si>
@@ -176,6 +197,9 @@
     <t>'Playground'</t>
   </si>
   <si>
+    <t>'Pond'</t>
+  </si>
+  <si>
     <t>'Private Bathroom'</t>
   </si>
   <si>
@@ -203,15 +227,18 @@
     <t>'Roommate Matching'</t>
   </si>
   <si>
+    <t>'Sauna'</t>
+  </si>
+  <si>
     <t>'Shuttle To Campus'</t>
   </si>
   <si>
+    <t>'Shuttle to Train'</t>
+  </si>
+  <si>
     <t>'Spa'</t>
   </si>
   <si>
-    <t>'Storage Space'</t>
-  </si>
-  <si>
     <t>'Study Lounge'</t>
   </si>
   <si>
@@ -221,16 +248,19 @@
     <t>'Tanning Salon'</t>
   </si>
   <si>
+    <t>'Tennis Court'</t>
+  </si>
+  <si>
     <t>'Trash Pickup - Curbside'</t>
   </si>
   <si>
     <t>'Trash Pickup - Door to Door'</t>
   </si>
   <si>
+    <t>'Vacuum System'</t>
+  </si>
+  <si>
     <t>'Video Patrol'</t>
-  </si>
-  <si>
-    <t>'Vintage Building'</t>
   </si>
   <si>
     <t>'Vision Impaired Accessible'</t>
@@ -590,7 +620,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A80"/>
+  <dimension ref="A1:A90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -996,6 +1026,56 @@
     <row r="80" spans="1:1">
       <c r="A80" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/src/export_community_amenities.xlsx
+++ b/src/export_community_amenities.xlsx
@@ -15,86 +15,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>'24 Hour Availability'</t>
   </si>
   <si>
-    <t>'Adjacent to Open Space'</t>
-  </si>
-  <si>
-    <t>'Adjacent to Walking / Biking Trails'</t>
-  </si>
-  <si>
     <t>'Basketball Court'</t>
   </si>
   <si>
-    <t>'Bike Storage'</t>
-  </si>
-  <si>
     <t>'Boat Docks'</t>
   </si>
   <si>
-    <t>'Breakfast/Coffee Concierge'</t>
-  </si>
-  <si>
     <t>'Business Center'</t>
   </si>
   <si>
-    <t>'Cabana'</t>
-  </si>
-  <si>
-    <t>'Car Charging Station'</t>
-  </si>
-  <si>
-    <t>'Car Wash Area'</t>
-  </si>
-  <si>
     <t>'Clubhouse'</t>
   </si>
   <si>
-    <t>'Clubhouse / Recreation Room'</t>
-  </si>
-  <si>
-    <t>'Community Pool'</t>
+    <t>'Coffee System'</t>
   </si>
   <si>
     <t>'Community-Wide WiFi'</t>
   </si>
   <si>
-    <t>'Composting'</t>
-  </si>
-  <si>
-    <t>'Concierge'</t>
-  </si>
-  <si>
-    <t>'Conference Room'</t>
-  </si>
-  <si>
     <t>'Controlled Access'</t>
   </si>
   <si>
-    <t>'Corporate Suites'</t>
-  </si>
-  <si>
     <t>'Courtyard'</t>
   </si>
   <si>
-    <t>'Cul de Sac'</t>
-  </si>
-  <si>
-    <t>'Day Care'</t>
-  </si>
-  <si>
     <t>'Disposal Chutes'</t>
   </si>
   <si>
-    <t>'Doorman'</t>
-  </si>
-  <si>
-    <t>'Dry Cleaning Service'</t>
-  </si>
-  <si>
     <t>'Elevator'</t>
   </si>
   <si>
@@ -104,103 +56,58 @@
     <t>'Fitness Center'</t>
   </si>
   <si>
-    <t>'Full Scenic View'</t>
-  </si>
-  <si>
     <t>'Gameroom'</t>
   </si>
   <si>
-    <t>'Gated Community'</t>
-  </si>
-  <si>
-    <t>'Grocery Service'</t>
+    <t>'Garden'</t>
+  </si>
+  <si>
+    <t>'Grill'</t>
   </si>
   <si>
     <t>'Guest Apartment'</t>
   </si>
   <si>
-    <t>'Health Club Discount'</t>
-  </si>
-  <si>
-    <t>'Hearing Impaired Accessible'</t>
-  </si>
-  <si>
-    <t>'Individual Leases Available'</t>
-  </si>
-  <si>
-    <t>'Individual Locking Bedrooms'</t>
-  </si>
-  <si>
     <t>'Key Fob Entry'</t>
   </si>
   <si>
     <t>'Lake Access'</t>
   </si>
   <si>
-    <t>'Laundry Service'</t>
-  </si>
-  <si>
     <t>'Lounge'</t>
   </si>
   <si>
-    <t>'Maid Service'</t>
-  </si>
-  <si>
     <t>'Maintenance on site'</t>
   </si>
   <si>
-    <t>'Meal Service'</t>
-  </si>
-  <si>
-    <t>'Media Center/Movie Theatre'</t>
+    <t>'Mud Room'</t>
   </si>
   <si>
     <t>'Multi Use Room'</t>
   </si>
   <si>
-    <t>'Near Parks'</t>
-  </si>
-  <si>
-    <t>'Near Retail'</t>
-  </si>
-  <si>
     <t>'On-Site ATM'</t>
   </si>
   <si>
-    <t>'On-Site Retail'</t>
-  </si>
-  <si>
     <t>'Online Services'</t>
   </si>
   <si>
     <t>'Package Service'</t>
   </si>
   <si>
-    <t>'Partial Scenic View'</t>
-  </si>
-  <si>
-    <t>'Pet Care'</t>
-  </si>
-  <si>
     <t>'Pet Play Area'</t>
   </si>
   <si>
-    <t>'Pet Washing Station'</t>
-  </si>
-  <si>
     <t>'Picnic Area'</t>
   </si>
   <si>
     <t>'Planned Social Activities'</t>
   </si>
   <si>
-    <t>'Playground'</t>
-  </si>
-  <si>
     <t>'Pond'</t>
   </si>
   <si>
-    <t>'Private Bathroom'</t>
+    <t>'Pool'</t>
   </si>
   <si>
     <t>'Property Manager on Site'</t>
@@ -209,12 +116,6 @@
     <t>'Public Transportation'</t>
   </si>
   <si>
-    <t>'Putting Greens'</t>
-  </si>
-  <si>
-    <t>'Racquetball Court'</t>
-  </si>
-  <si>
     <t>'Recycling'</t>
   </si>
   <si>
@@ -224,67 +125,34 @@
     <t>'Roof Terrace'</t>
   </si>
   <si>
-    <t>'Roommate Matching'</t>
-  </si>
-  <si>
     <t>'Sauna'</t>
   </si>
   <si>
-    <t>'Shuttle To Campus'</t>
-  </si>
-  <si>
-    <t>'Shuttle to Train'</t>
-  </si>
-  <si>
     <t>'Spa'</t>
   </si>
   <si>
-    <t>'Study Lounge'</t>
+    <t>'Storage Space'</t>
   </si>
   <si>
     <t>'Sundeck'</t>
   </si>
   <si>
-    <t>'Tanning Salon'</t>
-  </si>
-  <si>
     <t>'Tennis Court'</t>
   </si>
   <si>
     <t>'Trash Pickup - Curbside'</t>
   </si>
   <si>
-    <t>'Trash Pickup - Door to Door'</t>
-  </si>
-  <si>
-    <t>'Vacuum System'</t>
-  </si>
-  <si>
-    <t>'Video Patrol'</t>
-  </si>
-  <si>
-    <t>'Vision Impaired Accessible'</t>
-  </si>
-  <si>
     <t>'Volleyball Court'</t>
   </si>
   <si>
-    <t>'Walk To Campus'</t>
-  </si>
-  <si>
     <t>'Walking/Biking Trails'</t>
   </si>
   <si>
     <t>'Waterfront'</t>
   </si>
   <si>
-    <t>'Waterfront View'</t>
-  </si>
-  <si>
     <t>'Wi-Fi at Pool and Clubhouse'</t>
-  </si>
-  <si>
-    <t>'Zen Garden'</t>
   </si>
 </sst>
 </file>
@@ -620,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A90"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,226 +724,6 @@
     <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
